--- a/public/storage/excel/2020_11_02_contoh data nim, nama, partisipasi.xlsx
+++ b/public/storage/excel/2020_11_02_contoh data nim, nama, partisipasi.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users File\Documents\TUGAS NON KULIAH\PROYEK CETAK SERTIFIKAT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E87AD0F-0D0D-4E3C-9E96-987542218679}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7ACF7F6D-E3AA-4DD2-A6EF-CE6A4D886B56}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D7E385F6-A802-4739-8B79-7396189CA014}"/>
   </bookViews>
@@ -69,10 +69,10 @@
     <t>Panitia</t>
   </si>
   <si>
-    <t>Peserta</t>
-  </si>
-  <si>
     <t>Pembicara</t>
+  </si>
+  <si>
+    <t>Harusnya error</t>
   </si>
 </sst>
 </file>
@@ -428,7 +428,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -457,7 +457,7 @@
         <v>10</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -490,7 +490,7 @@
         <v>9</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
